--- a/PMS/doc/log_201608040201_马雅婷.xlsx
+++ b/PMS/doc/log_201608040201_马雅婷.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,15 +47,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19:00-21:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原计划</t>
+    <t>问题与后续计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经配置连接数据库，还未实现展现层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续第二章的学习并开始学习第三章内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,23 +71,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.跟随老师进度，配置模块并与数据库连接成功。2.跟随课本学完第二章并实现代码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经配置连接数据库，还未实现展现层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续第二章的学习并开始学习第三章内容</t>
+    <t>基本跟上了老师的进度，但在junit4测试时出现Failed to load ApplicationContext的错误和Error creating bean with name 'userManagerImpl'错误还未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决错误，多看书，了解原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.跟上老师进度；2.Junit4测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -443,13 +451,36 @@
     </row>
     <row r="2" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43216</v>
+        <v>43224</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -461,36 +492,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9</v>
       </c>
@@ -498,18 +526,24 @@
         <v>5.4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>5.4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
